--- a/صيدليات دكتور مصطفي طلعت_2026-01-12_19-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-12_19-34.xlsx
@@ -59,7 +59,7 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>1:2</t>
   </si>
   <si>
     <t>BONDIGA 30 TABS</t>
@@ -146,9 +146,6 @@
     <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>E-YEAST 20 CAPS</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:5</t>
   </si>
   <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
@@ -1014,11 +1020,11 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1476,7 +1482,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1494,7 +1500,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1520,7 +1526,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1546,7 +1552,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1572,7 +1578,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1580,7 +1586,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1598,7 +1604,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1606,17 +1612,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>-15</v>
+        <v>74</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1624,7 +1630,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1632,17 +1638,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>65</v>
+        <v>-15</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1650,7 +1656,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1658,13 +1664,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>381</v>
+        <v>65</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1676,7 +1682,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1690,7 +1696,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>32</v>
+        <v>381</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1702,7 +1708,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1710,17 +1716,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>86.5</v>
+        <v>32</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1728,7 +1734,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1736,13 +1742,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>78</v>
+        <v>86.5</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1754,7 +1760,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1762,17 +1768,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1780,7 +1786,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1788,17 +1794,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1806,7 +1812,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1814,17 +1820,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1832,7 +1838,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1840,13 +1846,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1858,7 +1864,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1866,13 +1872,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1884,7 +1890,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1892,17 +1898,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1910,7 +1916,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1918,17 +1924,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1936,7 +1942,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1944,17 +1950,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1962,7 +1968,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1970,13 +1976,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -1988,7 +1994,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1996,17 +2002,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2022,17 +2028,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>20.010000000000002</v>
+        <v>76</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2040,7 +2046,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2048,17 +2054,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>56.399999999999999</v>
+        <v>17</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2066,7 +2072,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2074,13 +2080,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>37.600000000000001</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2092,7 +2098,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2100,17 +2106,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>27</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2126,13 +2132,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>42</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2152,17 +2158,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2184,11 +2190,11 @@
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2204,17 +2210,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>67.5</v>
+        <v>25</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2230,17 +2236,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2262,7 +2268,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>675</v>
+        <v>67.5</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2282,17 +2288,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2308,13 +2314,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>2.5</v>
+        <v>675</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2326,7 +2332,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2334,17 +2340,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2352,7 +2358,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2360,17 +2366,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2378,7 +2384,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2386,17 +2392,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2404,7 +2410,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2418,11 +2424,11 @@
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2430,7 +2436,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2438,7 +2444,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -2448,7 +2454,7 @@
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2464,13 +2470,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>196</v>
+        <v>2</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2490,13 +2496,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2516,13 +2522,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2542,13 +2548,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2560,7 +2566,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2574,11 +2580,11 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2586,7 +2592,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2594,17 +2600,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2620,51 +2626,103 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>54.450000000000003</v>
+        <v>40</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" ht="25.5" customHeight="1">
-      <c r="K71" s="10">
-        <v>4003.8800000000001</v>
-      </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" ht="24.75" customHeight="1">
+      <c r="A71" s="6">
+        <v>68</v>
+      </c>
+      <c t="s" r="B71" s="7">
         <v>101</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c t="s" r="F72" s="12">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c t="s" r="H71" s="8">
+        <v>67</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="9">
+        <v>70</v>
+      </c>
+      <c r="M71" s="9"/>
+      <c t="s" r="N71" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="6">
+        <v>69</v>
+      </c>
+      <c t="s" r="B72" s="7">
         <v>102</v>
       </c>
-      <c r="G72" s="12"/>
-      <c r="H72" s="13"/>
-      <c t="s" r="I72" s="14">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c t="s" r="H72" s="8">
+        <v>49</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="9">
+        <v>54.450000000000003</v>
+      </c>
+      <c r="M72" s="9"/>
+      <c t="s" r="N72" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" ht="25.5" customHeight="1">
+      <c r="K73" s="10">
+        <v>4194.8800000000001</v>
+      </c>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+    </row>
+    <row r="74" ht="17.25" customHeight="1">
+      <c t="s" r="A74" s="11">
         <v>103</v>
       </c>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c t="s" r="F74" s="12">
+        <v>104</v>
+      </c>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c t="s" r="I74" s="14">
+        <v>105</v>
+      </c>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="218">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2873,10 +2931,16 @@
     <mergeCell ref="B70:G70"/>
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:N74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
